--- a/vacataires.xlsx
+++ b/vacataires.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hpx36\OneDrive\Documents\Projet Stage - Vacation\service-vacation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140E4950-4B23-4DB9-AE80-200C159E6F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Feuille 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Feuille 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -154,21 +163,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -179,7 +190,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -207,7 +218,13 @@
     </fill>
   </fills>
   <borders count="17">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF284E3F"/>
@@ -221,6 +238,7 @@
       <bottom style="thin">
         <color rgb="FF284E3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -235,6 +253,7 @@
       <bottom style="thin">
         <color rgb="FF284E3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -249,6 +268,7 @@
       <bottom style="thin">
         <color rgb="FF284E3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -263,6 +283,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -277,6 +298,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -291,20 +313,22 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -319,34 +343,37 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -361,6 +388,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -375,6 +403,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -389,233 +418,240 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
+  <cellXfs count="36">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
     <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font/>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF6F8F9"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF356854"/>
           <bgColor rgb="FF356854"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF6F8F9"/>
-          <bgColor rgb="FFF6F8F9"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Feuille 1-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Feuille 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+      <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:G16" displayName="Tableau1" name="Tableau1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A1:G16">
   <tableColumns count="7">
-    <tableColumn name="Nom" id="1"/>
-    <tableColumn name="Département" id="2"/>
-    <tableColumn name="filiere" id="3"/>
-    <tableColumn name="semestre" id="4"/>
-    <tableColumn name="nbr semaines" id="5"/>
-    <tableColumn name="nbr heures" id="6"/>
-    <tableColumn name="Matiere" id="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nom"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Département"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="filiere"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="semestre"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="nbr semaines" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="nbr heures" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Matiere" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="Feuille 1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Feuille 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -805,26 +841,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="7" width="22.63"/>
+    <col min="1" max="7" width="22.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="41.25" customHeight="1">
+    <row r="1" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -847,7 +886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -861,16 +900,16 @@
         <v>10</v>
       </c>
       <c r="E2" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>24.0</v>
+        <v>6</v>
+      </c>
+      <c r="F2" s="6">
+        <v>24</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>12</v>
       </c>
@@ -884,16 +923,16 @@
         <v>10</v>
       </c>
       <c r="E3" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="F3" s="11">
-        <v>28.0</v>
+        <v>7</v>
+      </c>
+      <c r="F3" s="10">
+        <v>28</v>
       </c>
       <c r="G3" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -907,16 +946,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="10">
-        <v>12.0</v>
-      </c>
-      <c r="F4" s="11">
-        <v>48.0</v>
+        <v>12</v>
+      </c>
+      <c r="F4" s="10">
+        <v>48</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
@@ -930,19 +969,19 @@
         <v>19</v>
       </c>
       <c r="E5" s="15">
-        <v>6.0</v>
-      </c>
-      <c r="F5" s="16">
-        <v>24.0</v>
+        <v>6</v>
+      </c>
+      <c r="F5" s="15">
+        <v>24</v>
       </c>
       <c r="G5" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>17</v>
       </c>
@@ -956,16 +995,17 @@
         <v>19</v>
       </c>
       <c r="E6" s="15">
-        <v>6.0</v>
-      </c>
-      <c r="F6" s="16">
-        <v>24.0</v>
+        <v>6</v>
+      </c>
+      <c r="F6" s="15">
+        <v>24</v>
       </c>
       <c r="G6" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="H6" s="33"/>
+    </row>
+    <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>23</v>
       </c>
@@ -979,16 +1019,16 @@
         <v>19</v>
       </c>
       <c r="E7" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="F7" s="11">
-        <v>24.0</v>
+        <v>6</v>
+      </c>
+      <c r="F7" s="10">
+        <v>24</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>25</v>
       </c>
@@ -1002,65 +1042,66 @@
         <v>10</v>
       </c>
       <c r="E8" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="F8" s="11">
-        <v>40.0</v>
+        <v>10</v>
+      </c>
+      <c r="F8" s="10">
+        <v>40</v>
       </c>
       <c r="G8" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="21" t="s">
+      <c r="B9" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="22">
-        <v>4.0</v>
+      <c r="E9" s="21">
+        <v>4</v>
       </c>
       <c r="F9" s="21">
-        <v>16.0</v>
-      </c>
-      <c r="G9" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="21" t="s">
+      <c r="B10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="22">
-        <v>12.0</v>
+      <c r="E10" s="21">
+        <v>12</v>
       </c>
       <c r="F10" s="21">
-        <v>24.0</v>
-      </c>
-      <c r="G10" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="H10" s="33"/>
+    </row>
+    <row r="11" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>30</v>
       </c>
@@ -1074,16 +1115,16 @@
         <v>32</v>
       </c>
       <c r="E11" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="F11" s="11">
-        <v>20.0</v>
+        <v>5</v>
+      </c>
+      <c r="F11" s="10">
+        <v>20</v>
       </c>
       <c r="G11" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>34</v>
       </c>
@@ -1097,65 +1138,66 @@
         <v>19</v>
       </c>
       <c r="E12" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="F12" s="11">
-        <v>20.0</v>
+        <v>5</v>
+      </c>
+      <c r="F12" s="10">
+        <v>20</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="25" t="s">
+    <row r="13" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="27" t="s">
+      <c r="B13" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="28">
-        <v>3.0</v>
-      </c>
-      <c r="F13" s="27">
-        <v>12.0</v>
-      </c>
-      <c r="G13" s="29" t="s">
+      <c r="E13" s="26">
+        <v>3</v>
+      </c>
+      <c r="F13" s="26">
+        <v>12</v>
+      </c>
+      <c r="G13" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="25" t="s">
+    <row r="14" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="27" t="s">
+      <c r="B14" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="28">
-        <v>3.0</v>
-      </c>
-      <c r="F14" s="27">
-        <v>12.0</v>
-      </c>
-      <c r="G14" s="29" t="s">
+      <c r="E14" s="26">
+        <v>3</v>
+      </c>
+      <c r="F14" s="26">
+        <v>12</v>
+      </c>
+      <c r="G14" s="27" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15">
+      <c r="H14" s="33"/>
+    </row>
+    <row r="15" spans="1:8" ht="13" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>42</v>
       </c>
@@ -1169,35 +1211,35 @@
         <v>10</v>
       </c>
       <c r="E15" s="10">
-        <v>12.0</v>
-      </c>
-      <c r="F15" s="11">
-        <v>48.0</v>
+        <v>12</v>
+      </c>
+      <c r="F15" s="10">
+        <v>48</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="31" t="s">
+    <row r="16" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="32" t="s">
+      <c r="B16" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="33">
-        <v>10.0</v>
-      </c>
-      <c r="F16" s="32">
-        <v>20.0</v>
-      </c>
-      <c r="G16" s="34" t="s">
+      <c r="E16" s="30">
+        <v>10</v>
+      </c>
+      <c r="F16" s="30">
+        <v>20</v>
+      </c>
+      <c r="G16" s="31" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1207,9 +1249,9 @@
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="H13:H14"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>